--- a/Testcases_supplier/Invoices/Manual testcases/Invoices listing testcases.xlsx
+++ b/Testcases_supplier/Invoices/Manual testcases/Invoices listing testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Supplier hub\Invoices\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Invoices\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3A1153-AEBB-4BFF-9E70-658EB0F6670A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E287ECF2-3EB1-4756-939A-453EC142152C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,9 +115,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Show all invoices in the datatable by default. </t>
-  </si>
-  <si>
     <t xml:space="preserve">List of invoices </t>
   </si>
   <si>
@@ -422,12 +419,6 @@
     </r>
   </si>
   <si>
-    <t>Once select the 'Voided' invoices ,I will shows Invoice No.voided, Details, Notes, Description, Qty, Discount, Amount($) and Options</t>
-  </si>
-  <si>
-    <t>Clikc the Invoices -&gt; Actions</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Select the </t>
     </r>
@@ -498,9 +489,6 @@
     <t>View Invoices page</t>
   </si>
   <si>
-    <t xml:space="preserve">Once select the Date and click Search bottom </t>
-  </si>
-  <si>
     <t>It gets displayed the particular date vise invoices</t>
   </si>
   <si>
@@ -584,6 +572,60 @@
   </si>
   <si>
     <r>
+      <t>Click on the Invoice check box-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clear</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Click on the Invoice check box-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mark as paid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Click on the Invoice check box -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Export to Xero</t>
+    </r>
+  </si>
+  <si>
+    <t>Once select the 'Voided' invoices ,It will shows Invoice No.voided, Details, Notes, Description, Qty, Discount, Amount($) and Options</t>
+  </si>
+  <si>
+    <t>Click the Invoices -&gt; Actions</t>
+  </si>
+  <si>
+    <r>
       <t>When you should click the '</t>
     </r>
     <r>
@@ -605,55 +647,47 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">button it shows the Customer outlet, Invoice status, Payment status, Export status, Due date, Reset and Apply button </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Click on the Invoice check box-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Clear</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Click on the Invoice check box-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mark as paid</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Click on the Invoice check box -&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Export to Xero</t>
+      <t xml:space="preserve">button it shows the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Customer outlet, Invoice status, Payment status, Export status, Due date, Reset and Apply button"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Once select the Invoice Date and click Search bottom </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It wll appears </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Invoice date, Search, New invoice and Filter"    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  *Show all invoices in the datatable by default. </t>
     </r>
   </si>
 </sst>
@@ -1071,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,16 +1156,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1145,16 +1179,16 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1168,16 +1202,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
@@ -1188,19 +1222,19 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1208,22 +1242,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,16 +1271,16 @@
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1260,16 +1294,16 @@
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1283,16 +1317,16 @@
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1306,16 +1340,16 @@
         <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1329,16 +1363,16 @@
         <v>16</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1352,16 +1386,16 @@
         <v>16</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="F12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1375,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1398,16 +1432,16 @@
         <v>16</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1421,16 +1455,16 @@
         <v>16</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1444,16 +1478,16 @@
         <v>16</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="G16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1467,16 +1501,16 @@
         <v>16</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="G17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1490,16 +1524,16 @@
         <v>16</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1513,16 +1547,16 @@
         <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1536,16 +1570,16 @@
         <v>16</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1559,16 +1593,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1582,13 +1616,13 @@
         <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1603,10 +1637,10 @@
         <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1622,16 +1656,16 @@
         <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="G24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1645,16 +1679,16 @@
         <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="G25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1662,22 +1696,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Testcases_supplier/Invoices/Manual testcases/Invoices listing testcases.xlsx
+++ b/Testcases_supplier/Invoices/Manual testcases/Invoices listing testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Invoices\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E287ECF2-3EB1-4756-939A-453EC142152C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF69FE8E-9711-435C-A743-C77B4356634F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
   <si>
     <t>SL. No</t>
   </si>
@@ -689,6 +689,61 @@
       </rPr>
       <t xml:space="preserve">  *Show all invoices in the datatable by default. </t>
     </r>
+  </si>
+  <si>
+    <t>Click the invoice(new implementation)</t>
+  </si>
+  <si>
+    <r>
+      <t>1.The invoice details contains the same options like a normal e-invoice, but there may or may not be an order listed under</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Linked to"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. If there is an order, it will not be hyperlinked.
+2.Rename </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Outlet" to "Deliver to"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed Invoices details</t>
   </si>
 </sst>
 </file>
@@ -791,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -821,6 +876,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1103,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:F16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,7 +1364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1317,19 +1375,19 @@
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1340,19 +1398,19 @@
         <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1362,43 +1420,43 @@
       <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="G12" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1409,10 +1467,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>47</v>
@@ -1421,7 +1479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1432,19 +1490,19 @@
         <v>16</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1458,16 +1516,16 @@
         <v>48</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1481,39 +1539,39 @@
         <v>48</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="G17" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1524,19 +1582,19 @@
         <v>16</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1547,19 +1605,19 @@
         <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1569,20 +1627,20 @@
       <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>62</v>
+      <c r="D20" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1593,40 +1651,42 @@
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1637,15 +1697,17 @@
         <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1656,19 +1718,15 @@
         <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1679,38 +1737,61 @@
         <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G27" s="12" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Testcases_supplier/Invoices/Manual testcases/Invoices listing testcases.xlsx
+++ b/Testcases_supplier/Invoices/Manual testcases/Invoices listing testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Invoices\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Zeemart All\Git hub\zm-buyerautomation\Testcases_supplier\Invoices\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF69FE8E-9711-435C-A743-C77B4356634F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB42A31-7F0F-489F-94AE-0BDAA963EA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="102">
   <si>
     <t>SL. No</t>
   </si>
@@ -744,6 +744,45 @@
   </si>
   <si>
     <t>It gets displayed Invoices details</t>
+  </si>
+  <si>
+    <t>View orders page</t>
+  </si>
+  <si>
+    <t>Click orders screen</t>
+  </si>
+  <si>
+    <t>Once click the should display the order list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click orders </t>
+  </si>
+  <si>
+    <t>Once click the particular order,it should display the create einvoice</t>
+  </si>
+  <si>
+    <t>As per expected,it get displayed orders list</t>
+  </si>
+  <si>
+    <t>As per expected,it get displayed createE-invoice</t>
+  </si>
+  <si>
+    <t>Once click createE-invoice,it should display the invoice page</t>
+  </si>
+  <si>
+    <t>As per expected,it get dispalyed the invoice page</t>
+  </si>
+  <si>
+    <t>View invoices page</t>
+  </si>
+  <si>
+    <t>Click invoices screen</t>
+  </si>
+  <si>
+    <t>In the Invoice page,it should display to rename the deliver to,Invoice number,Email invoice to,invoice date,order number,payment terms and sales person</t>
+  </si>
+  <si>
+    <t>As per expected,it get dispalyed the invoice create page</t>
   </si>
 </sst>
 </file>
@@ -795,7 +834,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -818,67 +857,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1161,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,596 +1206,718 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="G6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="G10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="G13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="G16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="G19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="G20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="G21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="G22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="G25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="G26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="G27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testcases_supplier/Invoices/Manual testcases/Invoices listing testcases.xlsx
+++ b/Testcases_supplier/Invoices/Manual testcases/Invoices listing testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Zeemart All\Git hub\zm-buyerautomation\Testcases_supplier\Invoices\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Invoices\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB42A31-7F0F-489F-94AE-0BDAA963EA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D2B4D2-94B8-4F45-99F3-F106BC52D8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="102">
   <si>
     <t>SL. No</t>
   </si>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,7 +1728,9 @@
       <c r="F23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1747,8 +1749,12 @@
       <c r="E24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
